--- a/start_prog/utils/软件启动信息.xlsx
+++ b/start_prog/utils/软件启动信息.xlsx
@@ -604,7 +604,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
